--- a/data/expt_2/raw_transcripts/game49.xlsx
+++ b/data/expt_2/raw_transcripts/game49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="250">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -852,7 +852,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -862,6 +862,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1061,9 +1065,9 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="F250" activeCellId="0" sqref="F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4868,6 +4872,9 @@
       <c r="D241" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F241" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="n">
@@ -4924,6 +4931,9 @@
       </c>
       <c r="D244" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H244" s="2" t="s">
         <v>174</v>

--- a/data/expt_2/raw_transcripts/game49.xlsx
+++ b/data/expt_2/raw_transcripts/game49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="249">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t xml:space="preserve">A person.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a person</t>
   </si>
   <si>
     <t xml:space="preserve">The walking person or the standing person that's holding something?</t>
@@ -852,7 +849,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -866,10 +863,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1065,9 +1058,9 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F250" activeCellId="0" sqref="F250"/>
+      <selection pane="bottomLeft" activeCell="H79" activeCellId="0" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,9 +2254,7 @@
       <c r="F79" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="H79" s="2"/>
       <c r="I79" s="3" t="s">
         <v>62</v>
       </c>
@@ -2276,7 +2267,7 @@
         <v>216860</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>24</v>
@@ -2296,7 +2287,7 @@
         <v>219860</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>16</v>
@@ -2305,7 +2296,7 @@
         <v>60</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>62</v>
@@ -2319,7 +2310,7 @@
         <v>222860</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>10</v>
@@ -2333,7 +2324,7 @@
         <v>225860</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>10</v>
@@ -2347,7 +2338,7 @@
         <v>228860</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>16</v>
@@ -2364,7 +2355,7 @@
         <v>229860</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>10</v>
@@ -2378,7 +2369,7 @@
         <v>231860</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>24</v>
@@ -2390,7 +2381,7 @@
         <v>60</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>62</v>
@@ -2404,7 +2395,7 @@
         <v>236860</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>10</v>
@@ -2418,7 +2409,7 @@
         <v>239860</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>10</v>
@@ -2432,7 +2423,7 @@
         <v>240860</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>24</v>
@@ -2453,7 +2444,7 @@
         <v>242860</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>16</v>
@@ -2473,7 +2464,7 @@
         <v>244860</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>10</v>
@@ -2487,7 +2478,7 @@
         <v>246860</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>10</v>
@@ -2501,7 +2492,7 @@
         <v>248860</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>16</v>
@@ -2521,7 +2512,7 @@
         <v>251860</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>10</v>
@@ -2535,7 +2526,7 @@
         <v>252860</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>10</v>
@@ -2549,7 +2540,7 @@
         <v>254860</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>10</v>
@@ -2563,7 +2554,7 @@
         <v>257860</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>10</v>
@@ -2577,7 +2568,7 @@
         <v>261360</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>10</v>
@@ -2591,7 +2582,7 @@
         <v>265460</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>10</v>
@@ -2605,7 +2596,7 @@
         <v>267860</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>10</v>
@@ -2619,7 +2610,7 @@
         <v>271860</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>10</v>
@@ -2633,7 +2624,7 @@
         <v>275860</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>16</v>
@@ -2656,7 +2647,7 @@
         <v>281860</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>16</v>
@@ -2699,7 +2690,7 @@
         <v>60</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>62</v>
@@ -2713,7 +2704,7 @@
         <v>289860</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>16</v>
@@ -2733,7 +2724,7 @@
         <v>291360</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>10</v>
@@ -2747,7 +2738,7 @@
         <v>293360</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>24</v>
@@ -2767,7 +2758,7 @@
         <v>295360</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>10</v>
@@ -2781,7 +2772,7 @@
         <v>296860</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>10</v>
@@ -2795,7 +2786,7 @@
         <v>297860</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>10</v>
@@ -2809,7 +2800,7 @@
         <v>300860</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>10</v>
@@ -2823,7 +2814,7 @@
         <v>301860</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>10</v>
@@ -2837,7 +2828,7 @@
         <v>302860</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>16</v>
@@ -2854,7 +2845,7 @@
         <v>303860</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>10</v>
@@ -2868,7 +2859,7 @@
         <v>304860</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>10</v>
@@ -2882,7 +2873,7 @@
         <v>307360</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>10</v>
@@ -2896,7 +2887,7 @@
         <v>309600</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>10</v>
@@ -2910,7 +2901,7 @@
         <v>311360</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>16</v>
@@ -2927,7 +2918,7 @@
         <v>312360</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>10</v>
@@ -2941,7 +2932,7 @@
         <v>313360</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>10</v>
@@ -2955,7 +2946,7 @@
         <v>315360</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>24</v>
@@ -2967,7 +2958,7 @@
         <v>60</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>62</v>
@@ -2981,7 +2972,7 @@
         <v>320360</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>16</v>
@@ -3001,7 +2992,7 @@
         <v>323360</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>10</v>
@@ -3015,7 +3006,7 @@
         <v>326360</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>16</v>
@@ -3035,7 +3026,7 @@
         <v>326360</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>24</v>
@@ -3055,7 +3046,7 @@
         <v>328360</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>10</v>
@@ -3069,7 +3060,7 @@
         <v>331360</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>10</v>
@@ -3097,7 +3088,7 @@
         <v>333360</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>10</v>
@@ -3111,7 +3102,7 @@
         <v>334360</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>10</v>
@@ -3125,7 +3116,7 @@
         <v>336360</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>24</v>
@@ -3145,7 +3136,7 @@
         <v>341360</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>24</v>
@@ -3154,7 +3145,7 @@
         <v>60</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>62</v>
@@ -3168,7 +3159,7 @@
         <v>344360</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>10</v>
@@ -3182,7 +3173,7 @@
         <v>347360</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>10</v>
@@ -3196,7 +3187,7 @@
         <v>350360</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>10</v>
@@ -3210,7 +3201,7 @@
         <v>365360</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>16</v>
@@ -3222,7 +3213,7 @@
         <v>60</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>62</v>
@@ -3236,7 +3227,7 @@
         <v>367420</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>16</v>
@@ -3256,7 +3247,7 @@
         <v>368460</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>10</v>
@@ -3270,7 +3261,7 @@
         <v>369680</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>10</v>
@@ -3298,7 +3289,7 @@
         <v>371940</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>10</v>
@@ -3312,7 +3303,7 @@
         <v>375040</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>10</v>
@@ -3326,7 +3317,7 @@
         <v>378340</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>10</v>
@@ -3340,7 +3331,7 @@
         <v>381060</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>24</v>
@@ -3352,7 +3343,7 @@
         <v>60</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>62</v>
@@ -3366,7 +3357,7 @@
         <v>384100</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>10</v>
@@ -3380,7 +3371,7 @@
         <v>385480</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>10</v>
@@ -3394,7 +3385,7 @@
         <v>387300</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>16</v>
@@ -3411,7 +3402,7 @@
         <v>388520</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>10</v>
@@ -3425,7 +3416,7 @@
         <v>389840</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>16</v>
@@ -3442,7 +3433,7 @@
         <v>390820</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>10</v>
@@ -3456,7 +3447,7 @@
         <v>393300</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>10</v>
@@ -3470,7 +3461,7 @@
         <v>395300</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>10</v>
@@ -3484,7 +3475,7 @@
         <v>397300</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>24</v>
@@ -3493,7 +3484,7 @@
         <v>60</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>62</v>
@@ -3507,7 +3498,7 @@
         <v>401300</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>10</v>
@@ -3521,7 +3512,7 @@
         <v>404300</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>10</v>
@@ -3535,7 +3526,7 @@
         <v>407300</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>10</v>
@@ -3549,7 +3540,7 @@
         <v>408300</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>16</v>
@@ -3572,7 +3563,7 @@
         <v>409300</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>10</v>
@@ -3586,7 +3577,7 @@
         <v>412300</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>16</v>
@@ -3595,7 +3586,7 @@
         <v>60</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>62</v>
@@ -3609,7 +3600,7 @@
         <v>416300</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>10</v>
@@ -3623,7 +3614,7 @@
         <v>418300</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>10</v>
@@ -3651,7 +3642,7 @@
         <v>422300</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>16</v>
@@ -3668,7 +3659,7 @@
         <v>427640</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>10</v>
@@ -3682,7 +3673,7 @@
         <v>428640</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>24</v>
@@ -3699,7 +3690,7 @@
         <v>429640</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>10</v>
@@ -3713,7 +3704,7 @@
         <v>432140</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>24</v>
@@ -3725,7 +3716,7 @@
         <v>60</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>62</v>
@@ -3739,7 +3730,7 @@
         <v>434840</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>10</v>
@@ -3753,7 +3744,7 @@
         <v>435840</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>10</v>
@@ -3767,7 +3758,7 @@
         <v>438340</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>10</v>
@@ -3781,7 +3772,7 @@
         <v>441260</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>10</v>
@@ -3795,7 +3786,7 @@
         <v>442260</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>10</v>
@@ -3809,7 +3800,7 @@
         <v>443260</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>10</v>
@@ -3823,7 +3814,7 @@
         <v>445820</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>16</v>
@@ -3840,7 +3831,7 @@
         <v>446360</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>10</v>
@@ -3854,7 +3845,7 @@
         <v>450200</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>10</v>
@@ -3868,7 +3859,7 @@
         <v>454960</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>24</v>
@@ -3885,7 +3876,7 @@
         <v>456160</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>10</v>
@@ -3899,7 +3890,7 @@
         <v>457760</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>24</v>
@@ -3916,7 +3907,7 @@
         <v>459660</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>10</v>
@@ -3930,7 +3921,7 @@
         <v>461160</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>10</v>
@@ -3944,7 +3935,7 @@
         <v>463260</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>10</v>
@@ -3958,7 +3949,7 @@
         <v>465260</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>10</v>
@@ -3972,7 +3963,7 @@
         <v>468260</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>16</v>
@@ -3984,7 +3975,7 @@
         <v>60</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I185" s="3" t="s">
         <v>62</v>
@@ -3998,7 +3989,7 @@
         <v>472960</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>10</v>
@@ -4012,7 +4003,7 @@
         <v>476960</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>10</v>
@@ -4026,7 +4017,7 @@
         <v>479960</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>10</v>
@@ -4040,7 +4031,7 @@
         <v>482960</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>10</v>
@@ -4054,7 +4045,7 @@
         <v>484960</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>24</v>
@@ -4066,7 +4057,7 @@
         <v>60</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I190" s="3" t="s">
         <v>62</v>
@@ -4080,7 +4071,7 @@
         <v>488960</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>10</v>
@@ -4094,7 +4085,7 @@
         <v>489960</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>10</v>
@@ -4108,7 +4099,7 @@
         <v>490960</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>16</v>
@@ -4125,7 +4116,7 @@
         <v>493960</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>10</v>
@@ -4139,7 +4130,7 @@
         <v>495960</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>10</v>
@@ -4167,7 +4158,7 @@
         <v>500960</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>10</v>
@@ -4181,7 +4172,7 @@
         <v>500960</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>16</v>
@@ -4193,7 +4184,7 @@
         <v>60</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I198" s="3" t="s">
         <v>62</v>
@@ -4207,7 +4198,7 @@
         <v>505960</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>10</v>
@@ -4221,7 +4212,7 @@
         <v>506960</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>24</v>
@@ -4238,7 +4229,7 @@
         <v>508960</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>10</v>
@@ -4252,7 +4243,7 @@
         <v>510960</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>10</v>
@@ -4266,7 +4257,7 @@
         <v>511960</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>10</v>
@@ -4294,7 +4285,7 @@
         <v>514960</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>16</v>
@@ -4311,7 +4302,7 @@
         <v>515960</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>10</v>
@@ -4325,7 +4316,7 @@
         <v>516960</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>10</v>
@@ -4339,7 +4330,7 @@
         <v>520960</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>10</v>
@@ -4353,7 +4344,7 @@
         <v>525960</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>24</v>
@@ -4365,7 +4356,7 @@
         <v>60</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I209" s="3" t="s">
         <v>62</v>
@@ -4379,7 +4370,7 @@
         <v>529960</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>24</v>
@@ -4388,7 +4379,7 @@
         <v>60</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I210" s="3" t="s">
         <v>62</v>
@@ -4416,7 +4407,7 @@
         <v>535960</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>10</v>
@@ -4444,7 +4435,7 @@
         <v>537960</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>10</v>
@@ -4458,7 +4449,7 @@
         <v>540960</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>10</v>
@@ -4472,7 +4463,7 @@
         <v>545960</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>16</v>
@@ -4484,7 +4475,7 @@
         <v>60</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I216" s="3" t="s">
         <v>62</v>
@@ -4540,7 +4531,7 @@
         <v>552960</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>10</v>
@@ -4554,7 +4545,7 @@
         <v>554960</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>10</v>
@@ -4568,7 +4559,7 @@
         <v>556960</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>10</v>
@@ -4582,7 +4573,7 @@
         <v>558960</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>10</v>
@@ -4596,7 +4587,7 @@
         <v>564960</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>24</v>
@@ -4608,7 +4599,7 @@
         <v>60</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>62</v>
@@ -4622,7 +4613,7 @@
         <v>564960</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>10</v>
@@ -4636,7 +4627,7 @@
         <v>569960</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>16</v>
@@ -4656,7 +4647,7 @@
         <v>569960</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>10</v>
@@ -4670,7 +4661,7 @@
         <v>575960</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>10</v>
@@ -4684,7 +4675,7 @@
         <v>582960</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>10</v>
@@ -4698,7 +4689,7 @@
         <v>586960</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>16</v>
@@ -4710,7 +4701,7 @@
         <v>60</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I230" s="3" t="s">
         <v>62</v>
@@ -4724,7 +4715,7 @@
         <v>588960</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>10</v>
@@ -4738,7 +4729,7 @@
         <v>589960</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>10</v>
@@ -4766,7 +4757,7 @@
         <v>592960</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>10</v>
@@ -4780,7 +4771,7 @@
         <v>594960</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>16</v>
@@ -4797,7 +4788,7 @@
         <v>595960</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>10</v>
@@ -4811,7 +4802,7 @@
         <v>599960</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>10</v>
@@ -4825,7 +4816,7 @@
         <v>601960</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>10</v>
@@ -4839,7 +4830,7 @@
         <v>604960</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>10</v>
@@ -4853,7 +4844,7 @@
         <v>607960</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>10</v>
@@ -4867,12 +4858,12 @@
         <v>608960</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F241" s="4" t="s">
+      <c r="F241" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4884,7 +4875,7 @@
         <v>610960</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>24</v>
@@ -4907,7 +4898,7 @@
         <v>612960</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>24</v>
@@ -4927,16 +4918,16 @@
         <v>613960</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F244" s="4" t="s">
+      <c r="F244" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I244" s="3" t="s">
         <v>62</v>
@@ -4950,7 +4941,7 @@
         <v>614960</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>16</v>
@@ -4967,7 +4958,7 @@
         <v>616960</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>10</v>
@@ -4981,7 +4972,7 @@
         <v>617960</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>16</v>
@@ -5012,7 +5003,7 @@
         <v>622960</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>10</v>
@@ -5026,7 +5017,7 @@
         <v>626960</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>10</v>
@@ -5040,7 +5031,7 @@
         <v>629960</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>10</v>
@@ -5054,7 +5045,7 @@
         <v>632960</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>16</v>
@@ -5071,7 +5062,7 @@
         <v>634960</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>10</v>
